--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/6 AUDITORIA ACTIVOS FIJOS/2 SUMARIA ACTIVOS FIJOS.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/6 AUDITORIA ACTIVOS FIJOS/2 SUMARIA ACTIVOS FIJOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\5 PRUEBAS SUSTANTIVAS\6 AUDITORIA ACTIVOS FIJOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\6 AUDITORIA ACTIVOS FIJOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0472F951-99F3-4F70-A104-53ACD0030629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9555CCD9-0A33-4FF1-8EC3-EB5F4CA89D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
-    <t xml:space="preserve">                                  AUDITORIA FINANCIERA </t>
-  </si>
-  <si>
     <t>Elaboro</t>
   </si>
   <si>
@@ -47,9 +44,6 @@
   </si>
   <si>
     <t>Reviso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       (Cifras expresadas en quetzales)</t>
   </si>
   <si>
     <t>FUENTE: Balance general</t>
@@ -93,15 +87,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">      ENTIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                           DEL 01 DE ENERO AL 31  DE DICIEMBRE DE 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   CEDULA SUMARIA PROPIEDAD, PLANTA Y EQUIPO</t>
-  </si>
-  <si>
     <t>F-1</t>
   </si>
   <si>
@@ -145,6 +130,21 @@
   </si>
   <si>
     <t>para obtener seguridad razonable sobre si los saldos presentados por la entidad, están libres de errores  significativos.</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDITORIA FINANCIERA </t>
+  </si>
+  <si>
+    <t>CEDULA SUMARIA PROPIEDAD, PLANTA Y EQUIPO</t>
+  </si>
+  <si>
+    <t>(Cifras expresadas en quetzales)</t>
   </si>
 </sst>
 </file>
@@ -258,25 +258,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -401,12 +394,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
@@ -424,63 +416,49 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -500,23 +478,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -539,176 +524,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="CuadroTexto 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="571501"/>
-          <a:ext cx="838200" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-GT" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-GT" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-GT" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CuadroTexto 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12782550" y="2352675"/>
-          <a:ext cx="3124200" cy="523875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-GT" sz="1100"/>
-            <a:t>La referencia F</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-GT" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-GT" sz="1100"/>
-            <a:t>al hacer clic es un vinculo a este papel que debe abrir en sistema </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1135,10 +950,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:L32"/>
+  <dimension ref="A2:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C13"/>
+      <selection activeCell="D7" sqref="D7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,451 +970,463 @@
     <col min="10" max="10" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="20" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="K6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="K7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="K8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="K9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+    </row>
+    <row r="11" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="44"/>
+      <c r="J11" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="8"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="E12" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29">
+        <f t="shared" ref="E14:J14" si="0">SUBTOTAL(9,E13:E13)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="K6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="K7" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
-      <c r="K8" s="12" t="s">
+      <c r="F14" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="35"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="K9" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="24"/>
-    </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="26" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="35"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="C20" s="33"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="35"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="C21" s="33"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="35"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="28"/>
-    </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-    </row>
-    <row r="14" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="33"/>
-      <c r="C14" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36">
-        <f>SUBTOTAL(9,E13:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="36">
-        <f>SUBTOTAL(9,F13:F13)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="36">
-        <f>SUBTOTAL(9,G13:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="37">
-        <f>SUBTOTAL(9,H13:H13)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="37">
-        <f>SUBTOTAL(9,I13:I13)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="38">
-        <f>SUBTOTAL(9,J13:J13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="39" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="35"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="37"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="35"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="42"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="42"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="39" t="s">
+      <c r="C24" s="33"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="35"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="37"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="35"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="42"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="42"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="42"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="42"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="44"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="42"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="45" t="s">
+      <c r="C26" s="35"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="33"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="42"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="44"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="42"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="40" t="s">
+      <c r="C28" s="35"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="33"/>
+      <c r="C29" s="35"/>
+      <c r="E29" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="40"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="40" t="s">
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="E30" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="42"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="40"/>
-      <c r="C29" s="42"/>
-      <c r="E29" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="E30" s="48" t="s">
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E31" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="48" t="s">
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E31" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E32" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="I32" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
+      <c r="E32" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="I32" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="75" orientation="landscape" r:id="rId1"/>
